--- a/Data/collapsed database manual cases/durango_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/durango_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/durango/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6152ECF6-1DAC-7842-9CED-5E4A23DA0F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F99E266-6BDE-684D-9790-71D9ABC3A6B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E3DAFA-F740-4643-9332-5838B6666EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="25480" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="777">
   <si>
     <t>uniqueid</t>
   </si>
@@ -2255,13 +2255,112 @@
   </si>
   <si>
     <t>https://indemdgo.blogspot.com/2013/02/historico-de-presidentes-municipales-de.html</t>
+  </si>
+  <si>
+    <t>FRANCISCO LUIS GRACIA MARQUEZ</t>
+  </si>
+  <si>
+    <t>PVEM_PT_MORENA_RSP</t>
+  </si>
+  <si>
+    <t>JUANA ACEVEDO IBARRA</t>
+  </si>
+  <si>
+    <t>MIRNA YUNELI ROBLES VIZCARRA</t>
+  </si>
+  <si>
+    <t>JUDITH RODRIGUEZ OLIVARES</t>
+  </si>
+  <si>
+    <t>MARISELA CORRAL LOPEZ</t>
+  </si>
+  <si>
+    <t>PAN_PRI_PRD</t>
+  </si>
+  <si>
+    <t>RODOLFO ALONSO VIDALES</t>
+  </si>
+  <si>
+    <t>JULIAN CESAR RIVAS B. NEVAREZ</t>
+  </si>
+  <si>
+    <t>SANDRA ALICIA MARTINEZ AGUILAR</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE CHAVARRIA CORCHADO</t>
+  </si>
+  <si>
+    <t>HUGO ALBERTO GANDARA</t>
+  </si>
+  <si>
+    <t>LUZ MARIA CASTAÑEDA URIBE</t>
+  </si>
+  <si>
+    <t>ARMANDO BARRON ALVARADO</t>
+  </si>
+  <si>
+    <t>MANUEL EULOGIO RODRIGUEZ AGUIRRE</t>
+  </si>
+  <si>
+    <t>MARIA DE LUZ AMAYA PARRA</t>
+  </si>
+  <si>
+    <t>IRMA ARACELI AISPURO AISPURO</t>
+  </si>
+  <si>
+    <t>RITA ESTHER LOZANO REYES</t>
+  </si>
+  <si>
+    <t>ROGELIO FLORES GUERRERO</t>
+  </si>
+  <si>
+    <t>HECTOR HERRERA NUÑEZ</t>
+  </si>
+  <si>
+    <t>MARISELA BARRAZA GARCIA</t>
+  </si>
+  <si>
+    <t>DIANA BERENICE GONZALEZ TORRES</t>
+  </si>
+  <si>
+    <t>FERNANDO REVERTE GRANADOS</t>
+  </si>
+  <si>
+    <t>HOMERO MARTINEZ CABRERA</t>
+  </si>
+  <si>
+    <t>JUAN JOSE CORRAL MIRANDA</t>
+  </si>
+  <si>
+    <t>DAVID RAMOS ZEPEDA</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO OCHOA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>YAZMIN ARRIETA VIZCARRA</t>
+  </si>
+  <si>
+    <t>MARIA DE LOS ANGELES ROJAS RIVERA</t>
+  </si>
+  <si>
+    <t>PVEM_PT_MORENA</t>
+  </si>
+  <si>
+    <t>PAN_PRI</t>
+  </si>
+  <si>
+    <t>ALEJANDRO MUÑOZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>SALVADOR CARRASCO SAENZ PARDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2297,6 +2396,12 @@
       <name val="Abadi"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2319,7 +2424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2329,6 +2434,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2635,10 +2742,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S313"/>
+  <dimension ref="A1:S348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H319" sqref="H319"/>
+      <selection activeCell="E314" sqref="E314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17348,6 +17455,707 @@
         <v>42</v>
       </c>
     </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>10001</v>
+      </c>
+      <c r="B314">
+        <v>2025</v>
+      </c>
+      <c r="C314" t="s">
+        <v>19</v>
+      </c>
+      <c r="E314" t="s">
+        <v>745</v>
+      </c>
+      <c r="F314" t="s">
+        <v>772</v>
+      </c>
+      <c r="H314" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>10002</v>
+      </c>
+      <c r="B315">
+        <v>2025</v>
+      </c>
+      <c r="C315" t="s">
+        <v>19</v>
+      </c>
+      <c r="E315" t="s">
+        <v>745</v>
+      </c>
+      <c r="F315" t="s">
+        <v>771</v>
+      </c>
+      <c r="H315" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>10003</v>
+      </c>
+      <c r="B316">
+        <v>2025</v>
+      </c>
+      <c r="C316" t="s">
+        <v>19</v>
+      </c>
+      <c r="E316" t="s">
+        <v>750</v>
+      </c>
+      <c r="F316" t="s">
+        <v>80</v>
+      </c>
+      <c r="H316" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>10004</v>
+      </c>
+      <c r="B317">
+        <v>2025</v>
+      </c>
+      <c r="C317" t="s">
+        <v>19</v>
+      </c>
+      <c r="E317" t="s">
+        <v>745</v>
+      </c>
+      <c r="F317" t="s">
+        <v>91</v>
+      </c>
+      <c r="H317" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>10005</v>
+      </c>
+      <c r="B318">
+        <v>2025</v>
+      </c>
+      <c r="C318" t="s">
+        <v>19</v>
+      </c>
+      <c r="E318" t="s">
+        <v>750</v>
+      </c>
+      <c r="F318" t="s">
+        <v>770</v>
+      </c>
+      <c r="H318" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>10007</v>
+      </c>
+      <c r="B319">
+        <v>2025</v>
+      </c>
+      <c r="C319" t="s">
+        <v>19</v>
+      </c>
+      <c r="E319" t="s">
+        <v>750</v>
+      </c>
+      <c r="F319" t="s">
+        <v>159</v>
+      </c>
+      <c r="H319" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>10008</v>
+      </c>
+      <c r="B320">
+        <v>2025</v>
+      </c>
+      <c r="C320" t="s">
+        <v>19</v>
+      </c>
+      <c r="E320" t="s">
+        <v>750</v>
+      </c>
+      <c r="F320" t="s">
+        <v>769</v>
+      </c>
+      <c r="H320" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>10011</v>
+      </c>
+      <c r="B321">
+        <v>2025</v>
+      </c>
+      <c r="C321" t="s">
+        <v>19</v>
+      </c>
+      <c r="E321" t="s">
+        <v>750</v>
+      </c>
+      <c r="F321" t="s">
+        <v>768</v>
+      </c>
+      <c r="H321" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>10012</v>
+      </c>
+      <c r="B322">
+        <v>2025</v>
+      </c>
+      <c r="C322" t="s">
+        <v>19</v>
+      </c>
+      <c r="E322" t="s">
+        <v>750</v>
+      </c>
+      <c r="F322" t="s">
+        <v>767</v>
+      </c>
+      <c r="H322" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>10013</v>
+      </c>
+      <c r="B323">
+        <v>2025</v>
+      </c>
+      <c r="C323" t="s">
+        <v>19</v>
+      </c>
+      <c r="E323" t="s">
+        <v>745</v>
+      </c>
+      <c r="F323" t="s">
+        <v>766</v>
+      </c>
+      <c r="H323" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>10015</v>
+      </c>
+      <c r="B324">
+        <v>2025</v>
+      </c>
+      <c r="C324" t="s">
+        <v>19</v>
+      </c>
+      <c r="E324" t="s">
+        <v>745</v>
+      </c>
+      <c r="F324" t="s">
+        <v>765</v>
+      </c>
+      <c r="H324" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>10016</v>
+      </c>
+      <c r="B325">
+        <v>2025</v>
+      </c>
+      <c r="C325" t="s">
+        <v>19</v>
+      </c>
+      <c r="E325" t="s">
+        <v>750</v>
+      </c>
+      <c r="F325" t="s">
+        <v>321</v>
+      </c>
+      <c r="H325" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>10017</v>
+      </c>
+      <c r="B326">
+        <v>2025</v>
+      </c>
+      <c r="C326" t="s">
+        <v>19</v>
+      </c>
+      <c r="E326" t="s">
+        <v>750</v>
+      </c>
+      <c r="F326" t="s">
+        <v>764</v>
+      </c>
+      <c r="H326" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>10018</v>
+      </c>
+      <c r="B327">
+        <v>2025</v>
+      </c>
+      <c r="C327" t="s">
+        <v>19</v>
+      </c>
+      <c r="E327" t="s">
+        <v>750</v>
+      </c>
+      <c r="F327" t="s">
+        <v>347</v>
+      </c>
+      <c r="H327" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>10019</v>
+      </c>
+      <c r="B328">
+        <v>2025</v>
+      </c>
+      <c r="C328" t="s">
+        <v>19</v>
+      </c>
+      <c r="E328" t="s">
+        <v>745</v>
+      </c>
+      <c r="F328" t="s">
+        <v>763</v>
+      </c>
+      <c r="H328" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>10020</v>
+      </c>
+      <c r="B329">
+        <v>2025</v>
+      </c>
+      <c r="C329" t="s">
+        <v>19</v>
+      </c>
+      <c r="E329" t="s">
+        <v>745</v>
+      </c>
+      <c r="F329" t="s">
+        <v>762</v>
+      </c>
+      <c r="H329" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>10021</v>
+      </c>
+      <c r="B330">
+        <v>2025</v>
+      </c>
+      <c r="C330" t="s">
+        <v>19</v>
+      </c>
+      <c r="E330" t="s">
+        <v>750</v>
+      </c>
+      <c r="F330" t="s">
+        <v>761</v>
+      </c>
+      <c r="H330" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>10022</v>
+      </c>
+      <c r="B331">
+        <v>2025</v>
+      </c>
+      <c r="C331" t="s">
+        <v>19</v>
+      </c>
+      <c r="E331" t="s">
+        <v>750</v>
+      </c>
+      <c r="F331" t="s">
+        <v>760</v>
+      </c>
+      <c r="H331" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>10024</v>
+      </c>
+      <c r="B332">
+        <v>2025</v>
+      </c>
+      <c r="C332" t="s">
+        <v>19</v>
+      </c>
+      <c r="E332" t="s">
+        <v>750</v>
+      </c>
+      <c r="F332" t="s">
+        <v>759</v>
+      </c>
+      <c r="H332" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>10025</v>
+      </c>
+      <c r="B333">
+        <v>2025</v>
+      </c>
+      <c r="C333" t="s">
+        <v>19</v>
+      </c>
+      <c r="E333" t="s">
+        <v>745</v>
+      </c>
+      <c r="F333" t="s">
+        <v>758</v>
+      </c>
+      <c r="H333" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>10026</v>
+      </c>
+      <c r="B334">
+        <v>2025</v>
+      </c>
+      <c r="C334" t="s">
+        <v>19</v>
+      </c>
+      <c r="E334" t="s">
+        <v>745</v>
+      </c>
+      <c r="F334" t="s">
+        <v>757</v>
+      </c>
+      <c r="H334" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>10027</v>
+      </c>
+      <c r="B335">
+        <v>2025</v>
+      </c>
+      <c r="C335" t="s">
+        <v>19</v>
+      </c>
+      <c r="E335" t="s">
+        <v>745</v>
+      </c>
+      <c r="F335" t="s">
+        <v>756</v>
+      </c>
+      <c r="H335" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>10028</v>
+      </c>
+      <c r="B336">
+        <v>2025</v>
+      </c>
+      <c r="C336" t="s">
+        <v>19</v>
+      </c>
+      <c r="E336" t="s">
+        <v>750</v>
+      </c>
+      <c r="F336" t="s">
+        <v>755</v>
+      </c>
+      <c r="H336" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>10029</v>
+      </c>
+      <c r="B337">
+        <v>2025</v>
+      </c>
+      <c r="C337" t="s">
+        <v>19</v>
+      </c>
+      <c r="E337" t="s">
+        <v>745</v>
+      </c>
+      <c r="F337" t="s">
+        <v>754</v>
+      </c>
+      <c r="H337" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>10031</v>
+      </c>
+      <c r="B338">
+        <v>2025</v>
+      </c>
+      <c r="C338" t="s">
+        <v>19</v>
+      </c>
+      <c r="E338" t="s">
+        <v>745</v>
+      </c>
+      <c r="F338" t="s">
+        <v>753</v>
+      </c>
+      <c r="H338" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>10032</v>
+      </c>
+      <c r="B339">
+        <v>2025</v>
+      </c>
+      <c r="C339" t="s">
+        <v>19</v>
+      </c>
+      <c r="E339" t="s">
+        <v>750</v>
+      </c>
+      <c r="F339" t="s">
+        <v>752</v>
+      </c>
+      <c r="H339" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>10033</v>
+      </c>
+      <c r="B340">
+        <v>2025</v>
+      </c>
+      <c r="C340" t="s">
+        <v>19</v>
+      </c>
+      <c r="E340" t="s">
+        <v>745</v>
+      </c>
+      <c r="F340" t="s">
+        <v>751</v>
+      </c>
+      <c r="H340" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>10034</v>
+      </c>
+      <c r="B341">
+        <v>2025</v>
+      </c>
+      <c r="C341" t="s">
+        <v>19</v>
+      </c>
+      <c r="E341" t="s">
+        <v>745</v>
+      </c>
+      <c r="F341" t="s">
+        <v>641</v>
+      </c>
+      <c r="H341" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>10035</v>
+      </c>
+      <c r="B342">
+        <v>2025</v>
+      </c>
+      <c r="C342" t="s">
+        <v>19</v>
+      </c>
+      <c r="E342" t="s">
+        <v>750</v>
+      </c>
+      <c r="F342" t="s">
+        <v>749</v>
+      </c>
+      <c r="H342" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>10036</v>
+      </c>
+      <c r="B343">
+        <v>2025</v>
+      </c>
+      <c r="C343" t="s">
+        <v>19</v>
+      </c>
+      <c r="E343" t="s">
+        <v>745</v>
+      </c>
+      <c r="F343" t="s">
+        <v>748</v>
+      </c>
+      <c r="H343" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>10037</v>
+      </c>
+      <c r="B344">
+        <v>2025</v>
+      </c>
+      <c r="C344" t="s">
+        <v>19</v>
+      </c>
+      <c r="E344" t="s">
+        <v>745</v>
+      </c>
+      <c r="F344" t="s">
+        <v>747</v>
+      </c>
+      <c r="H344" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>10038</v>
+      </c>
+      <c r="B345">
+        <v>2025</v>
+      </c>
+      <c r="C345" t="s">
+        <v>19</v>
+      </c>
+      <c r="E345" t="s">
+        <v>745</v>
+      </c>
+      <c r="F345" t="s">
+        <v>746</v>
+      </c>
+      <c r="H345" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>10039</v>
+      </c>
+      <c r="B346">
+        <v>2025</v>
+      </c>
+      <c r="C346" t="s">
+        <v>19</v>
+      </c>
+      <c r="E346" t="s">
+        <v>745</v>
+      </c>
+      <c r="F346" t="s">
+        <v>744</v>
+      </c>
+      <c r="H346" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>10030</v>
+      </c>
+      <c r="B347">
+        <v>2025</v>
+      </c>
+      <c r="C347" t="s">
+        <v>19</v>
+      </c>
+      <c r="E347" t="s">
+        <v>379</v>
+      </c>
+      <c r="F347" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="G347" s="5"/>
+      <c r="H347" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>10025</v>
+      </c>
+      <c r="B348">
+        <v>2022</v>
+      </c>
+      <c r="C348" t="s">
+        <v>19</v>
+      </c>
+      <c r="E348" t="s">
+        <v>43</v>
+      </c>
+      <c r="F348" t="s">
+        <v>775</v>
+      </c>
+      <c r="H348" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S313" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
